--- a/biology/Zoologie/Geotrupes/Geotrupes.xlsx
+++ b/biology/Zoologie/Geotrupes/Geotrupes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geotrupes (les Géotrupes) est un genre d'insectes coléoptères de la famille des Geotrupidae, aujourd'hui surtout montagnards, prairiaux et forestiers, mais on peut supposer qu’aux époques préhistoriques, alors que de grands troupeaux d’herbivores sauvages circulaient et entretenaient de vastes réseaux de clairières et de zones humides pâturées, ils étaient plus nombreux et présents sur des milieux plus variés. 
 Sur le continent eurasiatique, depuis les années 1960-1970, ils sont en forte régression dans les pâturages, probablement à cause de l'utilisation excessive des pesticides, du recul du bocage, des remembrements et de la fragmentation écopaysagère. On les trouve encore nombreux dans les massifs forestiers importants et riches en grands mammifères herbivores et parfois dans certaines landes, carrières. Ils semblent difficilement recoloniser les milieux d’où ils ont disparu, ce qui laisse supposer une mobilité réduite, bien que la plupart volent parfaitement (à l’aube et au crépuscule et l’été en général).
@@ -513,9 +525,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (26 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 août 2014) :
 Geotrupes (Anoplotrupes) Jekel, 1865
 Geotrupes (Cnemotrupes) Jekel, 1865
 Geotrupes (Geohowdenius) Zunino, 1984
@@ -548,7 +562,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À titre d'exemple :
 Geotrupes (Geotrupes) baicalicus Reitter, 1893.
@@ -586,9 +602,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 août 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 août 2014) :
 Geotrupes amoenus
 Geotrupes baicalicus
 Geotrupes corinthius
@@ -605,7 +623,7 @@
 Geotrupes spiniger
 Geotrupes stercorarius
 Geotrupes thoracinus
-Selon NCBI  (13 octobre 2021)[3] :
+Selon NCBI  (13 octobre 2021) :
 Geotrupes balyi
 Geotrupes hornii
 Geotrupes ibericus
@@ -613,7 +631,7 @@
 Geotrupes semiopacus
 Geotrupes spiniger
 Geotrupes stercorarius
-Selon Paleobiology Database                   (26 août 2014)[4] :
+Selon Paleobiology Database                   (26 août 2014) :
 Geotrupes atavus
 Geotrupes germari
 Geotrupes jiaoyanshanense
